--- a/Bill of Materials/PCI BOM.xlsx
+++ b/Bill of Materials/PCI BOM.xlsx
@@ -379,9 +379,6 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -394,6 +391,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -692,7 +692,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -734,15 +734,15 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="21.75" thickBot="1">
-      <c r="C3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="C3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="12" t="s">
         <v>21</v>
       </c>
@@ -767,581 +767,581 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <f t="shared" ref="B7:B28" si="0">IF(E7="",0,IF(F7="",1,IF(I7="",2,3)))</f>
         <v>0</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="17"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
         <v>2</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="24" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" s="5" customFormat="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
         <v>3</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" s="5" customFormat="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
         <v>4</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="17"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" s="2" customFormat="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" s="2" customFormat="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="17"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:17" s="3" customFormat="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="17"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17" s="3" customFormat="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="17"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:17" s="2" customFormat="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="17"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17" s="2" customFormat="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="17"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="1:17" s="2" customFormat="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="17"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="16"/>
     </row>
     <row r="21" spans="1:17" s="2" customFormat="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="17"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="16"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19">
+      <c r="A23" s="16"/>
+      <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="17"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="17"/>
+      <c r="B24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="16"/>
     </row>
     <row r="26" spans="1:17" s="3" customFormat="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:17" s="3" customFormat="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="16"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="17"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="16"/>
     </row>
     <row r="35" spans="16:16">
       <c r="P35" s="1">

--- a/Bill of Materials/PCI BOM.xlsx
+++ b/Bill of Materials/PCI BOM.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$Q$6</definedName>
-    <definedName name="CART_ITEM" localSheetId="0">Sheet1!$G$22</definedName>
+    <definedName name="CART_ITEM" localSheetId="0">Sheet1!$G$24</definedName>
     <definedName name="Z_B02105E6_9950_4B2E_8684_BFF9FB535C5D_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$6:$Q$6</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Core2 X48 Motherboard Bill of Materials</t>
   </si>
@@ -129,6 +129,36 @@
   </si>
   <si>
     <t>Custom</t>
+  </si>
+  <si>
+    <t>Header 3x2</t>
+  </si>
+  <si>
+    <t>Header 7x2</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM17449-ND</t>
+  </si>
+  <si>
+    <t>WM17449-ND</t>
+  </si>
+  <si>
+    <t>15-91-2060</t>
+  </si>
+  <si>
+    <t>http://www.molex.com/pdm_docs/sd/015912060_sd.pdf</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WM17461-ND</t>
+  </si>
+  <si>
+    <t>WM17461-ND</t>
+  </si>
+  <si>
+    <t>15-91-0140</t>
+  </si>
+  <si>
+    <t>http://www.molex.com/pdm_docs/sd/015910140_sd.pdf</t>
   </si>
 </sst>
 </file>
@@ -342,7 +372,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -394,6 +424,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -689,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -722,14 +753,14 @@
         <v>16</v>
       </c>
       <c r="K2" s="9">
-        <f>SUM(P11:P21)</f>
+        <f>SUM(P13:P23)</f>
         <v>0</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="11">
-        <f>SUM(P22:P27)</f>
+        <f>SUM(P24:P29)</f>
         <v>0</v>
       </c>
     </row>
@@ -747,14 +778,14 @@
         <v>21</v>
       </c>
       <c r="K3" s="13">
-        <f>SUM(P9:P10)</f>
+        <f>SUM(P11:P12)</f>
         <v>0</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="15">
-        <f>SUM(P7:P8)</f>
+        <f>SUM(P10:P10)</f>
         <v>0</v>
       </c>
     </row>
@@ -820,24 +851,20 @@
         <v>20</v>
       </c>
       <c r="B7" s="18">
-        <f t="shared" ref="B7:B28" si="0">IF(E7="",0,IF(F7="",1,IF(I7="",2,3)))</f>
+        <f t="shared" ref="B7:B9" si="0">IF(E7="",0,IF(F7="",1,IF(I7="",2,3)))</f>
         <v>0</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>34</v>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -850,28 +877,36 @@
       <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1">
-      <c r="A8" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="16"/>
       <c r="B8" s="18">
-        <f t="shared" si="0"/>
+        <f>IF(E9="",0,IF(F8="",1,IF(I8="",2,3)))</f>
         <v>0</v>
       </c>
       <c r="C8" s="16">
         <v>2</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="L8" s="20"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
@@ -879,29 +914,37 @@
       <c r="P8" s="20"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" s="5" customFormat="1">
-      <c r="A9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="9" spans="1:17" s="4" customFormat="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="18" t="e">
+        <f>IF(#REF!="",0,IF(F9="",1,IF(I9="",2,3)))</f>
+        <v>#REF!</v>
       </c>
       <c r="C9" s="16">
         <v>3</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="L9" s="20"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -909,33 +952,33 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:17" s="5" customFormat="1">
+    <row r="10" spans="1:17" s="4" customFormat="1">
       <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B10:B30" si="1">IF(E10="",0,IF(F10="",1,IF(I10="",2,3)))</f>
         <v>0</v>
       </c>
       <c r="C10" s="16">
         <v>4</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="21"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="20"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
@@ -943,21 +986,29 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="16"/>
     </row>
-    <row r="11" spans="1:17" s="2" customFormat="1">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:17" s="5" customFormat="1">
+      <c r="A11" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="B11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="20"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -965,18 +1016,30 @@
       <c r="P11" s="20"/>
       <c r="Q11" s="16"/>
     </row>
-    <row r="12" spans="1:17" s="2" customFormat="1">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:17" s="5" customFormat="1">
+      <c r="A12" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>6</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="21"/>
@@ -990,15 +1053,15 @@
     <row r="13" spans="1:17" s="2" customFormat="1">
       <c r="A13" s="16"/>
       <c r="B13" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="21"/>
@@ -1012,15 +1075,15 @@
     <row r="14" spans="1:17" s="2" customFormat="1">
       <c r="A14" s="16"/>
       <c r="B14" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="21"/>
@@ -1031,18 +1094,18 @@
       <c r="P14" s="20"/>
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:17" s="3" customFormat="1">
+    <row r="15" spans="1:17" s="2" customFormat="1">
       <c r="A15" s="16"/>
       <c r="B15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="21"/>
@@ -1053,10 +1116,10 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="16"/>
     </row>
-    <row r="16" spans="1:17" s="3" customFormat="1">
+    <row r="16" spans="1:17" s="2" customFormat="1">
       <c r="A16" s="16"/>
       <c r="B16" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C16" s="16"/>
@@ -1078,7 +1141,7 @@
     <row r="17" spans="1:17" s="3" customFormat="1">
       <c r="A17" s="16"/>
       <c r="B17" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C17" s="16"/>
@@ -1093,14 +1156,14 @@
       <c r="L17" s="20"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:17" s="2" customFormat="1">
+    <row r="18" spans="1:17" s="3" customFormat="1">
       <c r="A18" s="16"/>
       <c r="B18" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C18" s="16"/>
@@ -1115,14 +1178,14 @@
       <c r="L18" s="20"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="16"/>
     </row>
-    <row r="19" spans="1:17" s="2" customFormat="1">
+    <row r="19" spans="1:17" s="3" customFormat="1">
       <c r="A19" s="16"/>
       <c r="B19" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C19" s="16"/>
@@ -1144,7 +1207,7 @@
     <row r="20" spans="1:17" s="2" customFormat="1">
       <c r="A20" s="16"/>
       <c r="B20" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C20" s="16"/>
@@ -1166,7 +1229,7 @@
     <row r="21" spans="1:17" s="2" customFormat="1">
       <c r="A21" s="16"/>
       <c r="B21" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C21" s="16"/>
@@ -1185,10 +1248,10 @@
       <c r="P21" s="20"/>
       <c r="Q21" s="16"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" s="2" customFormat="1">
       <c r="A22" s="16"/>
       <c r="B22" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C22" s="16"/>
@@ -1203,21 +1266,19 @@
       <c r="L22" s="20"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="20"/>
+      <c r="O22" s="16"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="16"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" s="2" customFormat="1">
       <c r="A23" s="16"/>
       <c r="B23" s="18">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
@@ -1227,16 +1288,14 @@
       <c r="L23" s="20"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="16"/>
       <c r="P23" s="20"/>
       <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="A24" s="16"/>
       <c r="B24" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C24" s="16"/>
@@ -1258,12 +1317,14 @@
     <row r="25" spans="1:17">
       <c r="A25" s="16"/>
       <c r="B25" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
@@ -1273,14 +1334,16 @@
       <c r="L25" s="20"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
+      <c r="O25" s="20"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="16"/>
     </row>
-    <row r="26" spans="1:17" s="3" customFormat="1">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:17">
+      <c r="A26" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="B26" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C26" s="16"/>
@@ -1295,14 +1358,14 @@
       <c r="L26" s="20"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
+      <c r="O26" s="20"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="1:17" s="3" customFormat="1">
+    <row r="27" spans="1:17">
       <c r="A27" s="16"/>
       <c r="B27" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C27" s="16"/>
@@ -1321,10 +1384,10 @@
       <c r="P27" s="20"/>
       <c r="Q27" s="16"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" s="3" customFormat="1">
       <c r="A28" s="16"/>
       <c r="B28" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C28" s="16"/>
@@ -1339,13 +1402,57 @@
       <c r="L28" s="20"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="16"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="16"/>
     </row>
-    <row r="35" spans="16:16">
-      <c r="P35" s="1">
-        <f>SUM(P7:P34)</f>
+    <row r="29" spans="1:17" s="3" customFormat="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="16"/>
+      <c r="B30" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="37" spans="16:16">
+      <c r="P37" s="1">
+        <f>SUM(P10:P36)</f>
         <v>0</v>
       </c>
     </row>
@@ -1371,13 +1478,13 @@
   <mergeCells count="1">
     <mergeCell ref="C3:I3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A7:B7 B8:B28">
-    <cfRule type="expression" priority="4">
+  <conditionalFormatting sqref="A10:B10 B11:B30 B7:B9">
+    <cfRule type="expression" priority="6">
       <formula>"if($E$7="""";true;false)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B27">
-    <cfRule type="iconSet" priority="8">
+  <conditionalFormatting sqref="B30">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1386,7 +1493,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
+  <conditionalFormatting sqref="B7:B9">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1396,8 +1503,24 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B29">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="K8" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId3"/>
+    <hyperlink ref="K9" r:id="rId4"/>
+    <hyperlink ref="H9" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Bill of Materials/PCI BOM.xlsx
+++ b/Bill of Materials/PCI BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="188">
   <si>
     <t>Item #</t>
   </si>
@@ -411,6 +411,183 @@
   </si>
   <si>
     <t>Virtex 4 PCI Card</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-20417-ND</t>
+  </si>
+  <si>
+    <t>296-20417-ND</t>
+  </si>
+  <si>
+    <t>PTH05050YAH</t>
+  </si>
+  <si>
+    <t>http://focus.ti.com/lit/ds/symlink/pth12050y.pdf</t>
+  </si>
+  <si>
+    <t>10W</t>
+  </si>
+  <si>
+    <t>Memory Bus Power</t>
+  </si>
+  <si>
+    <t>Termination Supply</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=511-1446-1-ND</t>
+  </si>
+  <si>
+    <t>511-1446-1-ND</t>
+  </si>
+  <si>
+    <t>TCA0J106M8R</t>
+  </si>
+  <si>
+    <t>C3216</t>
+  </si>
+  <si>
+    <t>Rohm</t>
+  </si>
+  <si>
+    <t>C-10uF 20%</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P30.1KHCT-ND</t>
+  </si>
+  <si>
+    <t>P30.1KHCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF3012V</t>
+  </si>
+  <si>
+    <t>R-30.1k Ohm 1%</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P30.1KLCT-ND</t>
+  </si>
+  <si>
+    <t>P30.1KLCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF3012X</t>
+  </si>
+  <si>
+    <t>R-31.6k Ohm 1%</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P31.6KHCT-ND</t>
+  </si>
+  <si>
+    <t>P31.6KHCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF3162V</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P31.6KLCT-ND</t>
+  </si>
+  <si>
+    <t>P31.6KLCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF3162X</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=511-1452-1-ND</t>
+  </si>
+  <si>
+    <t>511-1452-1-ND</t>
+  </si>
+  <si>
+    <t>TCA0J476M8R</t>
+  </si>
+  <si>
+    <t>C-47uF 20%</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P44.2KHCT-ND</t>
+  </si>
+  <si>
+    <t>P44.2KHCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF4422V</t>
+  </si>
+  <si>
+    <t>R-44.2k Ohm 1%</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P44.2KLCT-ND</t>
+  </si>
+  <si>
+    <t>P44.2KLCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF4422X</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=296-20366-ND</t>
+  </si>
+  <si>
+    <t>296-20366-ND</t>
+  </si>
+  <si>
+    <t>PTH03000WAH</t>
+  </si>
+  <si>
+    <t>3.3v Input Power Module</t>
+  </si>
+  <si>
+    <t>http://focus.ti.com/lit/ds/symlink/pth03000w.pdf</t>
+  </si>
+  <si>
+    <t>15W</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P84.5KHCT-ND</t>
+  </si>
+  <si>
+    <t>P84.5KHCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF8452V</t>
+  </si>
+  <si>
+    <t>R-84.5k Ohm 1%</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=P84.5KLCT-ND</t>
+  </si>
+  <si>
+    <t>P84.5KLCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF8452X</t>
+  </si>
+  <si>
+    <t>http://search.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;name=WSLI-.01CT-ND</t>
+  </si>
+  <si>
+    <t>WSLI-.01CT-ND</t>
+  </si>
+  <si>
+    <t>WSL3637R0100FEA</t>
+  </si>
+  <si>
+    <t>Vishay/Dale</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/doc?30099</t>
+  </si>
+  <si>
+    <t>3W</t>
+  </si>
+  <si>
+    <t>R-.01 Ohm 1%</t>
+  </si>
+  <si>
+    <t>Current Sense</t>
   </si>
 </sst>
 </file>
@@ -520,7 +697,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -533,9 +710,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -558,6 +732,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -855,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -883,42 +1065,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="21.75" thickBot="1">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="13">
         <v>4</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="S4" s="20">
-        <f>SUM(S7:S28)</f>
-        <v>4331.88</v>
+      <c r="S4" s="19">
+        <f>SUM(S7:S38)</f>
+        <v>4464.92</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -981,7 +1163,7 @@
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1">
       <c r="B7" s="4">
-        <f>IF(F7="",0,IF(G7="",1,IF(L7="",2,3)))</f>
+        <f t="shared" ref="B7:B17" si="0">IF(F7="",0,IF(G7="",1,IF(L7="",2,3)))</f>
         <v>3</v>
       </c>
       <c r="C7" s="2">
@@ -1005,7 +1187,7 @@
       <c r="I7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>0.01</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -1035,7 +1217,7 @@
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1">
       <c r="B8" s="4">
-        <f>IF(F8="",0,IF(G8="",1,IF(L8="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="2">
@@ -1059,7 +1241,7 @@
       <c r="I8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>0.05</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -1078,18 +1260,18 @@
         <v>0.03</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" ref="Q8:Q28" si="0">P8*$P$4</f>
+        <f t="shared" ref="Q8:Q28" si="1">P8*$P$4</f>
         <v>0</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6">
-        <f t="shared" ref="S8:S19" si="1">R8+Q8*O8</f>
+        <f t="shared" ref="S8:S19" si="2">R8+Q8*O8</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1">
       <c r="B9" s="4">
-        <f>IF(F9="",0,IF(G9="",1,IF(L9="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" s="2">
@@ -1113,7 +1295,7 @@
       <c r="I9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <v>0.01</v>
       </c>
       <c r="K9" s="8" t="s">
@@ -1132,18 +1314,18 @@
         <v>0.06</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1">
       <c r="B10" s="4">
-        <f>IF(F10="",0,IF(G10="",1,IF(L10="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" s="2">
@@ -1167,7 +1349,7 @@
       <c r="I10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>0.05</v>
       </c>
       <c r="K10" s="8" t="s">
@@ -1186,18 +1368,18 @@
         <v>0.05</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="2" customFormat="1">
       <c r="B11" s="4">
-        <f>IF(F11="",0,IF(G11="",1,IF(L11="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C11" s="2">
@@ -1221,7 +1403,7 @@
       <c r="I11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>0.05</v>
       </c>
       <c r="K11" s="8" t="s">
@@ -1240,18 +1422,18 @@
         <v>0.03</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1">
       <c r="B12" s="4">
-        <f>IF(F12="",0,IF(G12="",1,IF(L12="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" s="2">
@@ -1275,7 +1457,7 @@
       <c r="I12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <v>0.01</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -1294,18 +1476,18 @@
         <v>0.04</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1">
       <c r="B13" s="4">
-        <f>IF(F13="",0,IF(G13="",1,IF(L13="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C13" s="2">
@@ -1329,7 +1511,7 @@
       <c r="I13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="17"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="9"/>
       <c r="L13" s="2" t="s">
         <v>15</v>
@@ -1347,18 +1529,18 @@
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1">
       <c r="B14" s="4">
-        <f>IF(F14="",0,IF(G14="",1,IF(L14="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C14" s="2">
@@ -1382,7 +1564,7 @@
       <c r="I14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="9"/>
       <c r="L14" s="2" t="s">
         <v>15</v>
@@ -1400,18 +1582,18 @@
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.44</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1">
       <c r="B15" s="4">
-        <f>IF(F15="",0,IF(G15="",1,IF(L15="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C15" s="2">
@@ -1432,11 +1614,11 @@
       <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="11"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1453,18 +1635,18 @@
         <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93.28</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1">
       <c r="B16" s="4">
-        <f>IF(F16="",0,IF(G16="",1,IF(L16="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C16" s="2">
@@ -1488,7 +1670,7 @@
       <c r="I16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="16"/>
+      <c r="J16" s="15"/>
       <c r="L16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1505,18 +1687,18 @@
         <v>1</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4171.2</v>
       </c>
     </row>
     <row r="17" spans="2:19" s="2" customFormat="1">
       <c r="B17" s="4">
-        <f>IF(F17="",0,IF(G17="",1,IF(L17="",2,3)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C17" s="2">
@@ -1540,7 +1722,7 @@
       <c r="I17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="17"/>
+      <c r="J17" s="16"/>
       <c r="K17" s="7"/>
       <c r="L17" s="2" t="s">
         <v>15</v>
@@ -1555,18 +1737,18 @@
         <v>26.25</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:19" s="2" customFormat="1">
       <c r="B18" s="4">
-        <f t="shared" ref="B18:B19" si="2">IF(F18="",0,IF(G18="",1,IF(L18="",2,3)))</f>
+        <f t="shared" ref="B18:B19" si="3">IF(F18="",0,IF(G18="",1,IF(L18="",2,3)))</f>
         <v>3</v>
       </c>
       <c r="C18" s="2">
@@ -1590,7 +1772,7 @@
       <c r="I18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="14">
         <v>0.01</v>
       </c>
       <c r="K18" s="8" t="s">
@@ -1609,18 +1791,18 @@
         <v>0.04</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:19" s="2" customFormat="1">
       <c r="B19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C19" s="2">
@@ -1644,7 +1826,7 @@
       <c r="I19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="14">
         <v>0.01</v>
       </c>
       <c r="K19" s="8" t="s">
@@ -1663,18 +1845,18 @@
         <v>0.06</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:19" s="2" customFormat="1">
       <c r="B20" s="4">
-        <f t="shared" ref="B20" si="3">IF(F20="",0,IF(G20="",1,IF(L20="",2,3)))</f>
+        <f t="shared" ref="B20" si="4">IF(F20="",0,IF(G20="",1,IF(L20="",2,3)))</f>
         <v>3</v>
       </c>
       <c r="C20" s="2">
@@ -1698,7 +1880,7 @@
       <c r="I20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="14">
         <v>0.05</v>
       </c>
       <c r="K20" s="8" t="s">
@@ -1717,18 +1899,18 @@
         <v>0.03</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="6">
-        <f t="shared" ref="S20:S25" si="4">R20+Q20*O20</f>
+        <f t="shared" ref="S20:S25" si="5">R20+Q20*O20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:19" s="2" customFormat="1">
       <c r="B21" s="4">
-        <f t="shared" ref="B21:B22" si="5">IF(F21="",0,IF(G21="",1,IF(L21="",2,3)))</f>
+        <f t="shared" ref="B21:B22" si="6">IF(F21="",0,IF(G21="",1,IF(L21="",2,3)))</f>
         <v>3</v>
       </c>
       <c r="C21" s="2">
@@ -1752,7 +1934,7 @@
       <c r="I21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="14">
         <v>0.05</v>
       </c>
       <c r="K21" s="8" t="s">
@@ -1771,18 +1953,18 @@
         <v>0.05</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:19" s="2" customFormat="1">
       <c r="B22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C22" s="2">
@@ -1806,7 +1988,7 @@
       <c r="I22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="14">
         <v>0.01</v>
       </c>
       <c r="K22" s="8" t="s">
@@ -1825,18 +2007,18 @@
         <v>0.04</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R22" s="6"/>
       <c r="S22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:19" s="2" customFormat="1">
       <c r="B23" s="4">
-        <f t="shared" ref="B23" si="6">IF(F23="",0,IF(G23="",1,IF(L23="",2,3)))</f>
+        <f t="shared" ref="B23" si="7">IF(F23="",0,IF(G23="",1,IF(L23="",2,3)))</f>
         <v>3</v>
       </c>
       <c r="C23" s="2">
@@ -1860,7 +2042,7 @@
       <c r="I23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="14">
         <v>0.01</v>
       </c>
       <c r="K23" s="8" t="s">
@@ -1879,18 +2061,18 @@
         <v>0.06</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:19" s="2" customFormat="1">
       <c r="B24" s="4">
-        <f t="shared" ref="B24" si="7">IF(F24="",0,IF(G24="",1,IF(L24="",2,3)))</f>
+        <f t="shared" ref="B24" si="8">IF(F24="",0,IF(G24="",1,IF(L24="",2,3)))</f>
         <v>3</v>
       </c>
       <c r="C24" s="2">
@@ -1914,7 +2096,7 @@
       <c r="I24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="14">
         <v>0.2</v>
       </c>
       <c r="K24" s="8" t="s">
@@ -1933,18 +2115,18 @@
         <v>2.1</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:19" s="2" customFormat="1">
       <c r="B25" s="4">
-        <f t="shared" ref="B25" si="8">IF(F25="",0,IF(G25="",1,IF(L25="",2,3)))</f>
+        <f t="shared" ref="B25" si="9">IF(F25="",0,IF(G25="",1,IF(L25="",2,3)))</f>
         <v>3</v>
       </c>
       <c r="C25" s="2">
@@ -1968,7 +2150,7 @@
       <c r="I25" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="14">
         <v>0.2</v>
       </c>
       <c r="K25" s="8" t="s">
@@ -1987,18 +2169,18 @@
         <v>2.12</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:19" s="2" customFormat="1">
       <c r="B26" s="4">
-        <f t="shared" ref="B26:B28" si="9">IF(F26="",0,IF(G26="",1,IF(L26="",2,3)))</f>
+        <f t="shared" ref="B26:B29" si="10">IF(F26="",0,IF(G26="",1,IF(L26="",2,3)))</f>
         <v>3</v>
       </c>
       <c r="C26" s="2">
@@ -2022,7 +2204,7 @@
       <c r="I26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="14">
         <v>0.01</v>
       </c>
       <c r="K26" s="8" t="s">
@@ -2041,18 +2223,18 @@
         <v>0.04</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6">
-        <f t="shared" ref="S26:S27" si="10">R26+Q26*O26</f>
+        <f t="shared" ref="S26:S27" si="11">R26+Q26*O26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:19" s="2" customFormat="1">
       <c r="B27" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C27" s="2">
@@ -2076,7 +2258,7 @@
       <c r="I27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="14">
         <v>0.01</v>
       </c>
       <c r="K27" s="8" t="s">
@@ -2095,18 +2277,18 @@
         <v>0.06</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:19" s="2" customFormat="1">
       <c r="B28" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="C28" s="2">
@@ -2130,7 +2312,7 @@
       <c r="I28" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="14">
         <v>0.92</v>
       </c>
       <c r="K28" s="8" t="s">
@@ -2152,81 +2334,704 @@
         <v>1</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6">
-        <f t="shared" ref="S28" si="11">R28+Q28*O28</f>
+        <f t="shared" ref="S28" si="12">R28+Q28*O28</f>
         <v>60.72</v>
       </c>
     </row>
     <row r="29" spans="2:19" s="2" customFormat="1">
-      <c r="B29" s="4"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="6"/>
+      <c r="B29" s="4">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>23</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="O29" s="6">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" ref="Q29" si="13">P29*$P$4</f>
+        <v>4</v>
+      </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
+      <c r="S29" s="6">
+        <f t="shared" ref="S29" si="14">R29+Q29*O29</f>
+        <v>72.319999999999993</v>
+      </c>
     </row>
     <row r="30" spans="2:19" s="2" customFormat="1">
-      <c r="B30" s="4"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="6"/>
+      <c r="B30" s="4">
+        <f t="shared" ref="B30:B38" si="15">IF(F30="",0,IF(G30="",1,IF(L30="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>24</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>137</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" ref="Q30:Q38" si="16">P30*$P$4</f>
+        <v>0</v>
+      </c>
       <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
+      <c r="S30" s="6">
+        <f t="shared" ref="S30:S38" si="17">R30+Q30*O30</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:19" s="2" customFormat="1">
-      <c r="B31" s="4"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="6"/>
+      <c r="B31" s="4">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>25</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
+      <c r="S31" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:19" s="2" customFormat="1">
-      <c r="B32" s="4"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="6"/>
-      <c r="S32" s="6"/>
+      <c r="B32" s="4">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>26</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" t="s">
+        <v>147</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:20" s="2" customFormat="1">
-      <c r="B33" s="4"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="6"/>
-      <c r="S33" s="6"/>
+      <c r="B33" s="4">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>27</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" t="s">
+        <v>151</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:20" s="2" customFormat="1">
-      <c r="B34" s="4"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="6"/>
-      <c r="S34" s="6"/>
+      <c r="B34" s="4">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>28</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s">
+        <v>155</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" t="s">
+        <v>154</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="6"/>
+      <c r="B35" s="4">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>29</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" t="s">
+        <v>157</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0.42</v>
+      </c>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="Q35" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
+      <c r="S35" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="T35" s="2"/>
     </row>
+    <row r="36" spans="1:20">
+      <c r="B36" s="4">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>30</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" t="s">
+        <v>162</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" t="s">
+        <v>161</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="B37" s="4">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="C37" s="2">
+        <v>31</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="B38" s="4">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>32</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J38" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" t="s">
+        <v>168</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="O38" s="6">
+        <v>15.18</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6">
+        <f t="shared" si="17"/>
+        <v>60.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="B39" s="4">
+        <f t="shared" ref="B39" si="18">IF(F39="",0,IF(G39="",1,IF(L39="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C39" s="2">
+        <v>31</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s">
+        <v>175</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" t="s">
+        <v>174</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="B40" s="4">
+        <f t="shared" ref="B40:B41" si="19">IF(F40="",0,IF(G40="",1,IF(L40="",2,3)))</f>
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>31</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" t="s">
+        <v>178</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="B41" s="4">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="C41" s="2">
+        <v>31</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J41" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" t="s">
+        <v>181</v>
+      </c>
+      <c r="N41" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="O41" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
     <row r="42" spans="1:20">
-      <c r="S42" s="1">
-        <f>SUM(S15:S41)</f>
-        <v>4325.2</v>
-      </c>
+      <c r="S42" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:T6">
@@ -2253,12 +3058,47 @@
   <mergeCells count="1">
     <mergeCell ref="C3:L3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A15:B15 B7:B14 B16:B35">
-    <cfRule type="expression" priority="6">
+  <conditionalFormatting sqref="A15:B15 B7:B14 B16:B38 B41">
+    <cfRule type="expression" priority="10">
       <formula>"if($E$7="""";true;false)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B14">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B38 B41">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" priority="4">
+      <formula>"if($E$7="""";true;false)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2268,18 +3108,13 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B14">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-        <cfvo type="num" val="3"/>
-      </iconSet>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" priority="2">
+      <formula>"if($E$7="""";true;false)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B34">
-    <cfRule type="iconSet" priority="16">
+  <conditionalFormatting sqref="B40">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2311,9 +3146,18 @@
     <hyperlink ref="N22" r:id="rId21"/>
     <hyperlink ref="N24" r:id="rId22"/>
     <hyperlink ref="I28" r:id="rId23"/>
+    <hyperlink ref="I29" r:id="rId24"/>
+    <hyperlink ref="N36" r:id="rId25"/>
+    <hyperlink ref="N38" r:id="rId26"/>
+    <hyperlink ref="N37" r:id="rId27"/>
+    <hyperlink ref="I38" r:id="rId28"/>
+    <hyperlink ref="N39" r:id="rId29"/>
+    <hyperlink ref="N40" r:id="rId30"/>
+    <hyperlink ref="N41" r:id="rId31"/>
+    <hyperlink ref="I41" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
